--- a/data/spring-cloud-shop/shop-order-api_structure.xlsx
+++ b/data/spring-cloud-shop/shop-order-api_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="257">
   <si>
     <t>Class Name</t>
   </si>
@@ -507,51 +507,51 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>userClient</t>
+  </si>
+  <si>
+    <t>quick.pager.shop.user.client.UserClient</t>
+  </si>
+  <si>
     <t>log</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>userClient</t>
-  </si>
-  <si>
-    <t>quick.pager.shop.user.client.UserClient</t>
-  </si>
-  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
+    <t>esSellerOrderClient</t>
+  </si>
+  <si>
+    <t>quick.pager.shop.elasticsearch.client.ESSellerOrderClient</t>
+  </si>
+  <si>
     <t>sellerOrderMapper</t>
   </si>
   <si>
-    <t>esSellerOrderClient</t>
-  </si>
-  <si>
-    <t>quick.pager.shop.elasticsearch.client.ESSellerOrderClient</t>
-  </si>
-  <si>
     <t>tradeType</t>
   </si>
   <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>tradeNo</t>
+  </si>
+  <si>
+    <t>outTradeNo</t>
+  </si>
+  <si>
     <t>totalAmount</t>
   </si>
   <si>
     <t>payType</t>
   </si>
   <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>outTradeNo</t>
-  </si>
-  <si>
-    <t>tradeNo</t>
-  </si>
-  <si>
     <t>esUserOrderClient</t>
   </si>
   <si>
@@ -561,61 +561,61 @@
     <t>userOrderMapper</t>
   </si>
   <si>
+    <t>sellerOrderId</t>
+  </si>
+  <si>
     <t>goodsSkuId</t>
   </si>
   <si>
     <t>purchaseQuantity</t>
   </si>
   <si>
+    <t>sellerId</t>
+  </si>
+  <si>
+    <t>purchaseAmount</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>userOrderId</t>
   </si>
   <si>
-    <t>purchaseAmount</t>
-  </si>
-  <si>
-    <t>sellerId</t>
-  </si>
-  <si>
-    <t>sellerOrderId</t>
-  </si>
-  <si>
     <t>content</t>
   </si>
   <si>
+    <t>deliveryTime</t>
+  </si>
+  <si>
     <t>self</t>
   </si>
   <si>
     <t>orderCode</t>
   </si>
   <si>
+    <t>orderAmount</t>
+  </si>
+  <si>
     <t>orderType</t>
   </si>
   <si>
-    <t>orderAmount</t>
+    <t>discountAmount</t>
+  </si>
+  <si>
+    <t>orderStatus</t>
   </si>
   <si>
     <t>addrId</t>
   </si>
   <si>
-    <t>deliveryTime</t>
-  </si>
-  <si>
-    <t>discountAmount</t>
-  </si>
-  <si>
-    <t>orderStatus</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
+    <t>couponId</t>
+  </si>
+  <si>
     <t>integralAmount</t>
-  </si>
-  <si>
-    <t>couponId</t>
   </si>
   <si>
     <t>integral</t>
@@ -5581,7 +5581,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7242,7 +7242,7 @@
         <v>142</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>231</v>
@@ -7250,10 +7250,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>231</v>
@@ -7264,21 +7264,21 @@
         <v>145</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="155">
@@ -7286,21 +7286,21 @@
         <v>131</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="157">
@@ -7308,10 +7308,10 @@
         <v>147</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="158">
@@ -7319,7 +7319,7 @@
         <v>147</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>239</v>
@@ -7330,7 +7330,7 @@
         <v>147</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>239</v>
@@ -7341,7 +7341,7 @@
         <v>147</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>239</v>
@@ -7352,7 +7352,7 @@
         <v>147</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>239</v>
@@ -7363,7 +7363,7 @@
         <v>147</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>239</v>
@@ -7374,7 +7374,7 @@
         <v>147</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>239</v>
@@ -7385,21 +7385,21 @@
         <v>147</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="166">
@@ -7407,10 +7407,10 @@
         <v>134</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="167">
@@ -7418,10 +7418,10 @@
         <v>134</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="168">
@@ -7429,10 +7429,10 @@
         <v>134</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="169">
@@ -7440,21 +7440,21 @@
         <v>134</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="171">
@@ -7462,10 +7462,10 @@
         <v>155</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="172">
@@ -7473,9 +7473,20 @@
         <v>155</v>
       </c>
       <c r="B172" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B173" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C172" t="s" s="0">
+      <c r="C173" t="s" s="0">
         <v>237</v>
       </c>
     </row>
@@ -8468,7 +8479,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>115</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6">
@@ -8476,13 +8487,13 @@
         <v>37</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>169</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
@@ -8510,7 +8521,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -8524,7 +8535,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -8532,13 +8543,13 @@
         <v>40</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>44</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11">
@@ -8546,13 +8557,13 @@
         <v>40</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>166</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -8566,7 +8577,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -8580,7 +8591,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -8602,13 +8613,13 @@
         <v>58</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>133</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -8616,13 +8627,13 @@
         <v>58</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
@@ -8644,13 +8655,13 @@
         <v>69</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>46</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
@@ -8658,7 +8669,7 @@
         <v>69</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>11</v>
@@ -8672,13 +8683,13 @@
         <v>69</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -8686,13 +8697,13 @@
         <v>69</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>166</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -8700,13 +8711,13 @@
         <v>69</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -8714,13 +8725,13 @@
         <v>69</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -8728,7 +8739,7 @@
         <v>69</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>11</v>
@@ -8756,13 +8767,13 @@
         <v>86</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>44</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27">
@@ -8770,7 +8781,7 @@
         <v>86</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>11</v>
@@ -8798,13 +8809,13 @@
         <v>86</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>166</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -8818,7 +8829,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>99</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -8832,7 +8843,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -8840,13 +8851,13 @@
         <v>93</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
@@ -8854,13 +8865,13 @@
         <v>93</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>44</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34">
@@ -8868,13 +8879,13 @@
         <v>93</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>166</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -8882,13 +8893,13 @@
         <v>93</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
@@ -8896,13 +8907,13 @@
         <v>93</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
@@ -8916,7 +8927,7 @@
         <v>11</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
@@ -8930,7 +8941,7 @@
         <v>11</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39">
@@ -8938,13 +8949,13 @@
         <v>93</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40">
@@ -8952,13 +8963,13 @@
         <v>93</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41">
@@ -8972,7 +8983,7 @@
         <v>11</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -8980,7 +8991,7 @@
         <v>116</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>11</v>
@@ -8994,13 +9005,13 @@
         <v>116</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
@@ -9028,7 +9039,7 @@
         <v>11</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
@@ -9036,13 +9047,13 @@
         <v>116</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47">
@@ -9050,13 +9061,13 @@
         <v>116</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48">
@@ -9064,13 +9075,13 @@
         <v>116</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>46</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49">
@@ -9078,13 +9089,13 @@
         <v>116</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>166</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -9092,13 +9103,13 @@
         <v>116</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51">
@@ -9106,13 +9117,13 @@
         <v>116</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52">
@@ -9120,13 +9131,13 @@
         <v>116</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -9134,13 +9145,13 @@
         <v>116</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54">
@@ -9148,13 +9159,13 @@
         <v>116</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>99</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55">
@@ -9162,13 +9173,13 @@
         <v>116</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56">
@@ -9176,13 +9187,13 @@
         <v>116</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57">
@@ -9190,13 +9201,13 @@
         <v>116</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58">
